--- a/static/tmpl/prefs-template.xlsx
+++ b/static/tmpl/prefs-template.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>KM</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Preference name or UUID</t>
         </r>
@@ -44,6 +45,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">UUID or name of parent Preference</t>
         </r>
@@ -56,6 +58,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Username</t>
         </r>
@@ -68,6 +71,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TRUE / FALSE</t>
         </r>
@@ -80,6 +84,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Available Options:
 - NONE
@@ -99,12 +104,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">TRUE / FALSE</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -122,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">TIPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encrypted</t>
   </si>
 </sst>
 </file>
@@ -136,6 +157,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -206,12 +228,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -221,13 +243,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.54"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -247,6 +272,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/static/tmpl/prefs-template.xlsx
+++ b/static/tmpl/prefs-template.xlsx
@@ -73,7 +73,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">TRUE / FALSE</t>
+          <t xml:space="preserve">HTML to describe how/what is it</t>
         </r>
       </text>
     </comment>
@@ -117,12 +117,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">A regex to validate the value; only work when tipe is TEXT/RICHTEXT/EMAIL</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -136,21 +149,40 @@
     <t xml:space="preserve">Owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reserved</t>
+    <t xml:space="preserve">HelpText</t>
   </si>
   <si>
     <t xml:space="preserve">TIPE</t>
   </si>
   <si>
     <t xml:space="preserve">Encrypted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;The HTML to tell user how to setup this preference&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(HK|TW)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -217,13 +249,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -243,10 +279,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -275,6 +311,29 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
